--- a/LIBA14/files/Q12.xlsx
+++ b/LIBA14/files/Q12.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffin Rayen\Desktop\GIT_WORKSPACE\fluffy-chainsaw\WIP\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffin Rayen\Desktop\GIT_WORKSPACE\fluffy-chainsaw\LIBA14\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A1BBDE4-1B8A-4F5C-9502-A9A118E3121B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4E27961-142F-4E19-ADB2-F5AA34F9B7D8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9576" windowHeight="5652" xr2:uid="{B467DD8F-A4AE-421E-8F5C-BCC4102DB5B2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9576" windowHeight="5652" xr2:uid="{A07CCB0F-78C3-47D5-AF59-3B3AB1D5176F}"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="673">
   <si>
     <t>String</t>
   </si>
@@ -45,6 +45,9 @@
     <t>Time</t>
   </si>
   <si>
+    <t>Punctuation</t>
+  </si>
+  <si>
     <t>OrderID</t>
   </si>
   <si>
@@ -93,7 +96,7 @@
     <t>Obere</t>
   </si>
   <si>
-    <t>Str.</t>
+    <t>Str</t>
   </si>
   <si>
     <t>Berlin</t>
@@ -117,7 +120,7 @@
     <t>helados</t>
   </si>
   <si>
-    <t>Avda.</t>
+    <t>Avda</t>
   </si>
   <si>
     <t>de</t>
@@ -132,7 +135,7 @@
     <t>México</t>
   </si>
   <si>
-    <t>D.F.</t>
+    <t>D.F</t>
   </si>
   <si>
     <t>Mexico</t>
@@ -168,7 +171,7 @@
     <t>Hanover</t>
   </si>
   <si>
-    <t>Sq.</t>
+    <t>Sq</t>
   </si>
   <si>
     <t>London</t>
@@ -216,7 +219,7 @@
     <t>Moos</t>
   </si>
   <si>
-    <t>Forsterstr.</t>
+    <t>Forsterstr</t>
   </si>
   <si>
     <t>Mannheim</t>
@@ -240,9 +243,6 @@
     <t>Citeaux</t>
   </si>
   <si>
-    <t>24,</t>
-  </si>
-  <si>
     <t>place</t>
   </si>
   <si>
@@ -270,10 +270,10 @@
     <t>Sommer</t>
   </si>
   <si>
-    <t>C/</t>
-  </si>
-  <si>
-    <t>Araquil,</t>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Araquil</t>
   </si>
   <si>
     <t>Madrid</t>
@@ -285,7 +285,7 @@
     <t>Bon</t>
   </si>
   <si>
-    <t>app'</t>
+    <t>app</t>
   </si>
   <si>
     <t>Laurence</t>
@@ -294,9 +294,6 @@
     <t>Lebihans</t>
   </si>
   <si>
-    <t>12,</t>
-  </si>
-  <si>
     <t>rue</t>
   </si>
   <si>
@@ -324,7 +321,7 @@
     <t>Tsawassen</t>
   </si>
   <si>
-    <t>Blvd.</t>
+    <t>Blvd</t>
   </si>
   <si>
     <t>T2F</t>
@@ -414,7 +411,7 @@
     <t>Wang</t>
   </si>
   <si>
-    <t>Hauptstr.</t>
+    <t>Hauptstr</t>
   </si>
   <si>
     <t>Bern</t>
@@ -435,13 +432,13 @@
     <t>Afonso</t>
   </si>
   <si>
-    <t>Av.</t>
+    <t>Av</t>
   </si>
   <si>
     <t>dos</t>
   </si>
   <si>
-    <t>Lusíadas,</t>
+    <t>Lusíadas</t>
   </si>
   <si>
     <t>São</t>
@@ -507,9 +504,6 @@
     <t>Labrune</t>
   </si>
   <si>
-    <t>67,</t>
-  </si>
-  <si>
     <t>Cinquante</t>
   </si>
   <si>
@@ -576,7 +570,7 @@
     <t>Rua</t>
   </si>
   <si>
-    <t>Orós,</t>
+    <t>Orós</t>
   </si>
   <si>
     <t>FISSA</t>
@@ -585,13 +579,13 @@
     <t>Fabrica</t>
   </si>
   <si>
-    <t>Inter.</t>
+    <t>Inter</t>
   </si>
   <si>
     <t>Salchichas</t>
   </si>
   <si>
-    <t>S.A.</t>
+    <t>S.A</t>
   </si>
   <si>
     <t>Diego</t>
@@ -600,7 +594,7 @@
     <t>Roel</t>
   </si>
   <si>
-    <t>Moralzarzal,</t>
+    <t>Moralzarzal</t>
   </si>
   <si>
     <t>Folies</t>
@@ -615,9 +609,6 @@
     <t>Rancé</t>
   </si>
   <si>
-    <t>184,</t>
-  </si>
-  <si>
     <t>chaussée</t>
   </si>
   <si>
@@ -675,16 +666,13 @@
     <t>Schmitt</t>
   </si>
   <si>
-    <t>54,</t>
-  </si>
-  <si>
     <t>Royale</t>
   </si>
   <si>
     <t>Franchi</t>
   </si>
   <si>
-    <t>S.p.A.</t>
+    <t>S.p.A</t>
   </si>
   <si>
     <t>Paolo</t>
@@ -741,7 +729,7 @@
     <t>rosas</t>
   </si>
   <si>
-    <t>n.</t>
+    <t>n</t>
   </si>
   <si>
     <t>Lisboa</t>
@@ -768,7 +756,7 @@
     <t>Rambla</t>
   </si>
   <si>
-    <t>Cataluña,</t>
+    <t>Cataluña</t>
   </si>
   <si>
     <t>Barcelona</t>
@@ -789,7 +777,7 @@
     <t>Freyre</t>
   </si>
   <si>
-    <t>Romero,</t>
+    <t>Romero</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -807,7 +795,7 @@
     <t>Fonseca</t>
   </si>
   <si>
-    <t>Brasil,</t>
+    <t>Brasil</t>
   </si>
   <si>
     <t>Campinas</t>
@@ -852,7 +840,7 @@
     <t>5ª</t>
   </si>
   <si>
-    <t>Ave.</t>
+    <t>Ave</t>
   </si>
   <si>
     <t>Los</t>
@@ -882,7 +870,7 @@
     <t>Pontes</t>
   </si>
   <si>
-    <t>Paço,</t>
+    <t>Paço</t>
   </si>
   <si>
     <t>Rio</t>
@@ -942,7 +930,7 @@
     <t>Main</t>
   </si>
   <si>
-    <t>St.</t>
+    <t>St</t>
   </si>
   <si>
     <t>Elgin</t>
@@ -1017,7 +1005,7 @@
     <t>Cramer</t>
   </si>
   <si>
-    <t>Maubelstr.</t>
+    <t>Maubelstr</t>
   </si>
   <si>
     <t>Brandenburg</t>
@@ -1131,7 +1119,7 @@
     <t>Frankfurt</t>
   </si>
   <si>
-    <t>a.M.</t>
+    <t>a.M</t>
   </si>
   <si>
     <t>Let's</t>
@@ -1191,7 +1179,7 @@
     <t>Porlamar</t>
   </si>
   <si>
-    <t>I.</t>
+    <t>I</t>
   </si>
   <si>
     <t>Margarita</t>
@@ -1215,7 +1203,7 @@
     <t>Chiaroscuro</t>
   </si>
   <si>
-    <t>Rd.</t>
+    <t>Rd</t>
   </si>
   <si>
     <t>Portland</t>
@@ -1302,7 +1290,7 @@
     <t>Feuer</t>
   </si>
   <si>
-    <t>Heerstr.</t>
+    <t>Heerstr</t>
   </si>
   <si>
     <t>Leipzig</t>
@@ -1329,7 +1317,7 @@
     <t>Atlántico</t>
   </si>
   <si>
-    <t>Ltda.</t>
+    <t>Ltda</t>
   </si>
   <si>
     <t>Yvonne</t>
@@ -1338,7 +1326,7 @@
     <t>Moncada</t>
   </si>
   <si>
-    <t>Ing.</t>
+    <t>Ing</t>
   </si>
   <si>
     <t>Gustavo</t>
@@ -1383,7 +1371,7 @@
     <t>Pfalzheim</t>
   </si>
   <si>
-    <t>Mehrheimerstr.</t>
+    <t>Mehrheimerstr</t>
   </si>
   <si>
     <t>Köln</t>
@@ -1401,9 +1389,6 @@
     <t>Bertrand</t>
   </si>
   <si>
-    <t>265,</t>
-  </si>
-  <si>
     <t>boulevard</t>
   </si>
   <si>
@@ -1425,7 +1410,7 @@
     <t>Calle</t>
   </si>
   <si>
-    <t>Dr.</t>
+    <t>Dr</t>
   </si>
   <si>
     <t>Jorge</t>
@@ -1488,7 +1473,7 @@
     <t>Batista</t>
   </si>
   <si>
-    <t>Panificadora,</t>
+    <t>Panificadora</t>
   </si>
   <si>
     <t>Queen</t>
@@ -1506,7 +1491,7 @@
     <t>Alameda</t>
   </si>
   <si>
-    <t>Canàrios,</t>
+    <t>Canàrios</t>
   </si>
   <si>
     <t>QUICK-Stop</t>
@@ -1593,7 +1578,7 @@
     <t>Limeira</t>
   </si>
   <si>
-    <t>Copacabana,</t>
+    <t>Copacabana</t>
   </si>
   <si>
     <t>Richter</t>
@@ -1614,9 +1599,6 @@
     <t>Genève</t>
   </si>
   <si>
-    <t>Romero</t>
-  </si>
-  <si>
     <t>tomillo</t>
   </si>
   <si>
@@ -1629,7 +1611,7 @@
     <t>Gran</t>
   </si>
   <si>
-    <t>Vía,</t>
+    <t>Vía</t>
   </si>
   <si>
     <t>Santé</t>
@@ -1671,7 +1653,7 @@
     <t>Suffolk</t>
   </si>
   <si>
-    <t>Ln.</t>
+    <t>Ln</t>
   </si>
   <si>
     <t>Boise</t>
@@ -1731,9 +1713,6 @@
     <t>Perrier</t>
   </si>
   <si>
-    <t>25,</t>
-  </si>
-  <si>
     <t>Lauriston</t>
   </si>
   <si>
@@ -1746,319 +1725,325 @@
     <t>Beer</t>
   </si>
   <si>
+    <t>Ale</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>Braunschweiger</t>
+  </si>
+  <si>
+    <t>P.O</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Lander</t>
+  </si>
+  <si>
+    <t>Suprêmes</t>
+  </si>
+  <si>
+    <t>délices</t>
+  </si>
+  <si>
+    <t>Pascale</t>
+  </si>
+  <si>
+    <t>Cartrain</t>
+  </si>
+  <si>
+    <t>Boulevard</t>
+  </si>
+  <si>
+    <t>Tirou</t>
+  </si>
+  <si>
+    <t>Charleroi</t>
+  </si>
+  <si>
+    <t>The</t>
+  </si>
+  <si>
+    <t>Big</t>
+  </si>
+  <si>
+    <t>Cheese</t>
+  </si>
+  <si>
+    <t>Liz</t>
+  </si>
+  <si>
+    <t>Nixon</t>
+  </si>
+  <si>
+    <t>Jefferson</t>
+  </si>
+  <si>
+    <t>Cracker</t>
+  </si>
+  <si>
+    <t>Liu</t>
+  </si>
+  <si>
+    <t>Wong</t>
+  </si>
+  <si>
+    <t>Grizzly</t>
+  </si>
+  <si>
+    <t>Peak</t>
+  </si>
+  <si>
+    <t>Butte</t>
+  </si>
+  <si>
+    <t>Toms</t>
+  </si>
+  <si>
+    <t>Spezialitäten</t>
+  </si>
+  <si>
+    <t>Karin</t>
+  </si>
+  <si>
+    <t>Josephs</t>
+  </si>
+  <si>
+    <t>Luisenstr</t>
+  </si>
+  <si>
+    <t>Münster</t>
+  </si>
+  <si>
+    <t>Tortuga</t>
+  </si>
+  <si>
+    <t>Restaurante</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Angel</t>
+  </si>
+  <si>
+    <t>Paolino</t>
+  </si>
+  <si>
+    <t>Azteca</t>
+  </si>
+  <si>
+    <t>Tradição</t>
+  </si>
+  <si>
+    <t>Hipermercados</t>
+  </si>
+  <si>
+    <t>Anabela</t>
+  </si>
+  <si>
+    <t>Domingues</t>
+  </si>
+  <si>
+    <t>Inês</t>
+  </si>
+  <si>
+    <t>Trail's</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Provisioners</t>
+  </si>
+  <si>
+    <t>Helvetius</t>
+  </si>
+  <si>
+    <t>Nagy</t>
+  </si>
+  <si>
+    <t>DaVinci</t>
+  </si>
+  <si>
+    <t>Kirkland</t>
+  </si>
+  <si>
+    <t>Vaffeljernet</t>
+  </si>
+  <si>
+    <t>Palle</t>
+  </si>
+  <si>
+    <t>Ibsen</t>
+  </si>
+  <si>
+    <t>Smagsløget</t>
+  </si>
+  <si>
+    <t>Århus</t>
+  </si>
+  <si>
+    <t>Victuailles</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Saveley</t>
+  </si>
+  <si>
+    <t>Commerce</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Vins</t>
+  </si>
+  <si>
+    <t>alcools</t>
+  </si>
+  <si>
+    <t>Chevalier</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Henriot</t>
+  </si>
+  <si>
+    <t>l'Abbaye</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Die</t>
+  </si>
+  <si>
+    <t>Wandernde</t>
+  </si>
+  <si>
+    <t>Kuh</t>
+  </si>
+  <si>
+    <t>Rita</t>
+  </si>
+  <si>
+    <t>Müller</t>
+  </si>
+  <si>
+    <t>Adenauerallee</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Wartian</t>
+  </si>
+  <si>
+    <t>Herkku</t>
+  </si>
+  <si>
+    <t>Pirkko</t>
+  </si>
+  <si>
+    <t>Koskitalo</t>
+  </si>
+  <si>
+    <t>Torikatu</t>
+  </si>
+  <si>
+    <t>Oulu</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Wellington</t>
+  </si>
+  <si>
+    <t>Importadora</t>
+  </si>
+  <si>
+    <t>Parente</t>
+  </si>
+  <si>
+    <t>Mercado</t>
+  </si>
+  <si>
+    <t>Resende</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Clover</t>
+  </si>
+  <si>
+    <t>Karl</t>
+  </si>
+  <si>
+    <t>Jablonski</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>14th</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Wilman</t>
+  </si>
+  <si>
+    <t>Kala</t>
+  </si>
+  <si>
+    <t>Matti</t>
+  </si>
+  <si>
+    <t>Karttunen</t>
+  </si>
+  <si>
+    <t>Keskuskatu</t>
+  </si>
+  <si>
+    <t>Helsinki</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>&amp;</t>
-  </si>
-  <si>
-    <t>Ale</t>
-  </si>
-  <si>
-    <t>Art</t>
-  </si>
-  <si>
-    <t>Braunschweiger</t>
-  </si>
-  <si>
-    <t>P.O.</t>
-  </si>
-  <si>
-    <t>Box</t>
-  </si>
-  <si>
-    <t>Lander</t>
-  </si>
-  <si>
-    <t>Suprêmes</t>
-  </si>
-  <si>
-    <t>délices</t>
-  </si>
-  <si>
-    <t>Pascale</t>
-  </si>
-  <si>
-    <t>Cartrain</t>
-  </si>
-  <si>
-    <t>Boulevard</t>
-  </si>
-  <si>
-    <t>Tirou,</t>
-  </si>
-  <si>
-    <t>Charleroi</t>
-  </si>
-  <si>
-    <t>The</t>
-  </si>
-  <si>
-    <t>Big</t>
-  </si>
-  <si>
-    <t>Cheese</t>
-  </si>
-  <si>
-    <t>Liz</t>
-  </si>
-  <si>
-    <t>Nixon</t>
-  </si>
-  <si>
-    <t>Jefferson</t>
-  </si>
-  <si>
-    <t>Cracker</t>
-  </si>
-  <si>
-    <t>Liu</t>
-  </si>
-  <si>
-    <t>Wong</t>
-  </si>
-  <si>
-    <t>Grizzly</t>
-  </si>
-  <si>
-    <t>Peak</t>
-  </si>
-  <si>
-    <t>Butte</t>
-  </si>
-  <si>
-    <t>Toms</t>
-  </si>
-  <si>
-    <t>Spezialitäten</t>
-  </si>
-  <si>
-    <t>Karin</t>
-  </si>
-  <si>
-    <t>Josephs</t>
-  </si>
-  <si>
-    <t>Luisenstr.</t>
-  </si>
-  <si>
-    <t>Münster</t>
-  </si>
-  <si>
-    <t>Tortuga</t>
-  </si>
-  <si>
-    <t>Restaurante</t>
-  </si>
-  <si>
-    <t>Miguel</t>
-  </si>
-  <si>
-    <t>Angel</t>
-  </si>
-  <si>
-    <t>Paolino</t>
-  </si>
-  <si>
-    <t>Azteca</t>
-  </si>
-  <si>
-    <t>Tradição</t>
-  </si>
-  <si>
-    <t>Hipermercados</t>
-  </si>
-  <si>
-    <t>Anabela</t>
-  </si>
-  <si>
-    <t>Domingues</t>
-  </si>
-  <si>
-    <t>Inês</t>
-  </si>
-  <si>
-    <t>Castro,</t>
-  </si>
-  <si>
-    <t>Trail's</t>
-  </si>
-  <si>
-    <t>Head</t>
-  </si>
-  <si>
-    <t>Provisioners</t>
-  </si>
-  <si>
-    <t>Helvetius</t>
-  </si>
-  <si>
-    <t>Nagy</t>
-  </si>
-  <si>
-    <t>DaVinci</t>
-  </si>
-  <si>
-    <t>Kirkland</t>
-  </si>
-  <si>
-    <t>Vaffeljernet</t>
-  </si>
-  <si>
-    <t>Palle</t>
-  </si>
-  <si>
-    <t>Ibsen</t>
-  </si>
-  <si>
-    <t>Smagsløget</t>
-  </si>
-  <si>
-    <t>Århus</t>
-  </si>
-  <si>
-    <t>Victuailles</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>Mary</t>
-  </si>
-  <si>
-    <t>Saveley</t>
-  </si>
-  <si>
-    <t>2,</t>
-  </si>
-  <si>
-    <t>Commerce</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Vins</t>
-  </si>
-  <si>
-    <t>alcools</t>
-  </si>
-  <si>
-    <t>Chevalier</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>Henriot</t>
-  </si>
-  <si>
-    <t>l'Abbaye</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Die</t>
-  </si>
-  <si>
-    <t>Wandernde</t>
-  </si>
-  <si>
-    <t>Kuh</t>
-  </si>
-  <si>
-    <t>Rita</t>
-  </si>
-  <si>
-    <t>Müller</t>
-  </si>
-  <si>
-    <t>Adenauerallee</t>
-  </si>
-  <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
-    <t>Wartian</t>
-  </si>
-  <si>
-    <t>Herkku</t>
-  </si>
-  <si>
-    <t>Pirkko</t>
-  </si>
-  <si>
-    <t>Koskitalo</t>
-  </si>
-  <si>
-    <t>Torikatu</t>
-  </si>
-  <si>
-    <t>Oulu</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Wellington</t>
-  </si>
-  <si>
-    <t>Importadora</t>
-  </si>
-  <si>
-    <t>Parente</t>
-  </si>
-  <si>
-    <t>Mercado,</t>
-  </si>
-  <si>
-    <t>Resende</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Clover</t>
-  </si>
-  <si>
-    <t>Karl</t>
-  </si>
-  <si>
-    <t>Jablonski</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>14th</t>
-  </si>
-  <si>
-    <t>S.</t>
-  </si>
-  <si>
-    <t>3B</t>
-  </si>
-  <si>
-    <t>Seattle</t>
-  </si>
-  <si>
-    <t>Wilman</t>
-  </si>
-  <si>
-    <t>Kala</t>
-  </si>
-  <si>
-    <t>Matti</t>
-  </si>
-  <si>
-    <t>Karttunen</t>
-  </si>
-  <si>
-    <t>Keskuskatu</t>
-  </si>
-  <si>
-    <t>Helsinki</t>
   </si>
 </sst>
 </file>
@@ -2103,11 +2088,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2421,920 +2409,1161 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A330D22-666F-40E7-A4BF-7D84F92AC267}">
-  <dimension ref="A1:F871"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1D5886-53CC-423A-A085-A2356DA7C31B}">
+  <dimension ref="A1:G861"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="8.88671875" style="6"/>
     <col min="5" max="5" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>10248</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>12209</v>
       </c>
       <c r="E2" s="1">
         <v>35250</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>90</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>2222</v>
       </c>
       <c r="E3" s="1">
         <v>35251</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>2312</v>
       </c>
       <c r="E4" s="1">
         <v>35254</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>68306</v>
       </c>
       <c r="E5" s="1">
         <v>35254</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>10249</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>67000</v>
       </c>
       <c r="E6" s="1">
         <v>35255</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>81</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>28023</v>
       </c>
       <c r="E7" s="1">
         <v>35256</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>13008</v>
       </c>
       <c r="E8" s="1">
         <v>35257</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>9993</v>
       </c>
       <c r="E9" s="1">
         <v>35258</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>10250</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>52066</v>
       </c>
       <c r="E10" s="1">
         <v>35261</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>34</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>44000</v>
       </c>
       <c r="E11" s="1">
         <v>35262</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>28034</v>
       </c>
       <c r="E12" s="1">
         <v>35263</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>59000</v>
       </c>
       <c r="E13" s="1">
         <v>35264</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>10251</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="6">
         <v>44000</v>
       </c>
       <c r="E14" s="1">
         <v>35265</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>84</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="6">
         <v>1675</v>
       </c>
       <c r="E15" s="1">
         <v>35265</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
         <v>2732</v>
       </c>
       <c r="E16" s="1">
         <v>35268</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="6">
         <v>97403</v>
       </c>
       <c r="E17" s="1">
         <v>35269</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>10252</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="6">
         <v>97827</v>
       </c>
       <c r="E18" s="1">
         <v>35270</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>76</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="6">
         <v>14776</v>
       </c>
       <c r="E19" s="1">
         <v>35271</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="6">
         <v>78000</v>
       </c>
       <c r="E20" s="1">
         <v>35272</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="6">
         <v>99362</v>
       </c>
       <c r="E21" s="1">
         <v>35275</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>10253</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="6">
         <v>94117</v>
       </c>
       <c r="E22" s="1">
         <v>35276</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>34</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="6">
         <v>3508</v>
       </c>
       <c r="E23" s="1">
         <v>35277</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="6">
         <v>4980</v>
       </c>
       <c r="E24" s="1">
         <v>35278</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="6">
         <v>97219</v>
       </c>
       <c r="E25" s="1">
         <v>35278</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>10254</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="6">
         <v>24100</v>
       </c>
       <c r="E26" s="1">
         <v>35279</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>14</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="6">
         <v>8585</v>
       </c>
       <c r="E27" s="1">
         <v>35282</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>5</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="6">
         <v>2743</v>
       </c>
       <c r="E28" s="1">
         <v>35283</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="6">
         <v>99508</v>
       </c>
       <c r="E29" s="1">
         <v>35284</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>10255</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="6">
         <v>75012</v>
       </c>
       <c r="E30" s="1">
         <v>35285</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>68</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="6">
         <v>1756</v>
       </c>
       <c r="E31" s="1">
         <v>35286</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>9</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="6">
         <v>2817</v>
       </c>
       <c r="E32" s="1">
         <v>35289</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="6">
         <v>87110</v>
       </c>
       <c r="E33" s="1">
         <v>35290</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>10256</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="6">
         <v>42100</v>
       </c>
       <c r="E34" s="1">
         <v>35291</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>88</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="6">
         <v>1203</v>
       </c>
       <c r="E35" s="1">
         <v>35291</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="6">
         <v>28001</v>
       </c>
       <c r="E36" s="1">
         <v>35292</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="6">
         <v>83720</v>
       </c>
       <c r="E37" s="1">
         <v>35293</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>10257</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="6">
         <v>1734</v>
       </c>
       <c r="E38" s="1">
         <v>35296</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>35</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="6">
         <v>75016</v>
       </c>
       <c r="E39" s="1">
         <v>35297</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>4</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="6">
         <v>82520</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>3</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="6">
         <v>97201</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B42">
         <v>10258</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="6">
         <v>59801</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B43">
         <v>20</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="6">
         <v>44087</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="6">
         <v>98034</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="6">
         <v>69004</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B46">
         <v>10259</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="6">
         <v>98128</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <v>13</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50">
         <v>10260</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B51">
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54">
         <v>10261</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B55">
         <v>61</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G55" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B56">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G56" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B57">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B58">
         <v>10262</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B59">
         <v>65</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G59" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B60">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G60" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B61">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G61" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B62">
         <v>10263</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G62" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B63">
         <v>20</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G63" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B64">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G64" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B65">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G65" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B66">
         <v>10264</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G66" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B67">
         <v>24</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G67" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B68">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G68" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B69">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G69" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B70">
         <v>10265</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G70" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B71">
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G71" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B72">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G72" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G73" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B74">
         <v>10266</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G74" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B75">
         <v>87</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G75" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B76">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G76" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B77">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G77" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B78">
         <v>10267</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G78" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B79">
         <v>25</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G79" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B80">
         <v>4</v>
       </c>
+      <c r="G80" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -3342,7 +3571,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B82">
         <v>10268</v>
@@ -3350,7 +3579,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B83">
         <v>33</v>
@@ -3358,7 +3587,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B84">
         <v>8</v>
@@ -3366,7 +3595,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B85">
         <v>3</v>
@@ -3374,7 +3603,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B86">
         <v>10269</v>
@@ -3382,7 +3611,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B87">
         <v>89</v>
@@ -3390,7 +3619,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -3398,7 +3627,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -3406,7 +3635,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B90">
         <v>10270</v>
@@ -3414,7 +3643,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B91">
         <v>87</v>
@@ -3422,7 +3651,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -3430,7 +3659,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -3438,7 +3667,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B94">
         <v>10271</v>
@@ -3446,7 +3675,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B95">
         <v>75</v>
@@ -3454,7 +3683,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B96">
         <v>6</v>
@@ -3462,7 +3691,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -3478,7 +3707,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B99">
         <v>65</v>
@@ -3486,7 +3715,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B100">
         <v>6</v>
@@ -3494,7 +3723,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -3502,7 +3731,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B102">
         <v>10273</v>
@@ -3510,7 +3739,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B103">
         <v>63</v>
@@ -3518,7 +3747,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B104">
         <v>3</v>
@@ -3534,7 +3763,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B106">
         <v>10274</v>
@@ -3542,7 +3771,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B107">
         <v>85</v>
@@ -3550,7 +3779,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B108">
         <v>6</v>
@@ -3558,7 +3787,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -3566,7 +3795,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B110">
         <v>10275</v>
@@ -3574,7 +3803,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B111">
         <v>49</v>
@@ -3582,7 +3811,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -3590,7 +3819,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -3606,7 +3835,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B115">
         <v>80</v>
@@ -3622,7 +3851,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B117">
         <v>3</v>
@@ -3638,7 +3867,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B119">
         <v>52</v>
@@ -3646,7 +3875,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -3654,7 +3883,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B121">
         <v>3</v>
@@ -3662,7 +3891,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B122">
         <v>10278</v>
@@ -3670,7 +3899,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B123">
         <v>5</v>
@@ -3678,7 +3907,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B124">
         <v>8</v>
@@ -3686,7 +3915,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B125">
         <v>2</v>
@@ -3694,7 +3923,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B126">
         <v>10279</v>
@@ -3702,7 +3931,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B127">
         <v>44</v>
@@ -3710,7 +3939,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B128">
         <v>8</v>
@@ -3718,7 +3947,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B129">
         <v>2</v>
@@ -3726,7 +3955,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B130">
         <v>10280</v>
@@ -3734,7 +3963,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B131">
         <v>5</v>
@@ -3742,7 +3971,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -3758,7 +3987,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B134">
         <v>10281</v>
@@ -3766,7 +3995,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="B135">
         <v>69</v>
@@ -3774,7 +4003,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B136">
         <v>4</v>
@@ -3782,7 +4011,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -3790,7 +4019,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="B138">
         <v>10282</v>
@@ -3798,7 +4027,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B139">
         <v>69</v>
@@ -3806,7 +4035,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B140">
         <v>4</v>
@@ -3814,7 +4043,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -3822,7 +4051,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B142">
         <v>10283</v>
@@ -3830,7 +4059,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B143">
         <v>46</v>
@@ -3838,7 +4067,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B144">
         <v>3</v>
@@ -3846,7 +4075,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B145">
         <v>3</v>
@@ -3854,7 +4083,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B146">
         <v>10284</v>
@@ -3862,7 +4091,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B147">
         <v>44</v>
@@ -3870,7 +4099,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B148">
         <v>4</v>
@@ -3878,7 +4107,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -3886,7 +4115,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B150">
         <v>10285</v>
@@ -3894,7 +4123,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B151">
         <v>63</v>
@@ -3902,7 +4131,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -3910,7 +4139,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B153">
         <v>2</v>
@@ -3918,7 +4147,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -3926,7 +4155,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B155">
         <v>57</v>
@@ -3934,7 +4163,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="B156">
         <v>12209</v>
@@ -3950,7 +4179,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="B158">
         <v>2222</v>
@@ -3958,7 +4187,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B159">
         <v>3</v>
@@ -3966,7 +4195,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B160">
         <v>2312</v>
@@ -3974,7 +4203,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="B161">
         <v>4</v>
@@ -3990,7 +4219,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B163">
         <v>5</v>
@@ -4006,7 +4235,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="B165">
         <v>22</v>
@@ -4014,7 +4243,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B166">
         <v>6</v>
@@ -4022,7 +4251,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B167">
         <v>57</v>
@@ -4030,7 +4259,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B168">
         <v>7</v>
@@ -4038,18 +4267,18 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B169">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>153</v>
+        <v>25</v>
       </c>
       <c r="B170">
-        <v>67</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -4057,87 +4286,87 @@
         <v>154</v>
       </c>
       <c r="B171">
-        <v>28023</v>
+        <v>67</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="B172">
-        <v>9</v>
+        <v>28023</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B173">
-        <v>13008</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B174">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B175">
-        <v>23</v>
+        <v>13008</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="B176">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="B177">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B178">
-        <v>333</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="B179">
-        <v>1010</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="B180">
-        <v>13</v>
+        <v>333</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="B181">
-        <v>9993</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -4145,7 +4374,7 @@
         <v>162</v>
       </c>
       <c r="B182">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -4153,47 +4382,47 @@
         <v>163</v>
       </c>
       <c r="B183">
-        <v>29</v>
+        <v>9993</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="B184">
-        <v>3012</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B185">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B186">
-        <v>23</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B187">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="B188">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -4201,23 +4430,23 @@
         <v>168</v>
       </c>
       <c r="B189">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="B190">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="B191">
-        <v>52066</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -4225,183 +4454,183 @@
         <v>170</v>
       </c>
       <c r="B192">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="B193">
-        <v>44000</v>
+        <v>52066</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B194">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B195">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B196">
-        <v>20</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B197">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B198">
-        <v>8010</v>
+        <v>35</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B199">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B200">
-        <v>92</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B201">
-        <v>22</v>
+        <v>8010</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B202">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B203">
-        <v>28034</v>
+        <v>92</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="B204">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="B205">
-        <v>59000</v>
+        <v>86</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="B206">
-        <v>24</v>
+        <v>28034</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="B207">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="B208">
-        <v>67</v>
+        <v>184</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="B209">
-        <v>25</v>
+        <v>59000</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B210">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B211">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B212">
-        <v>44000</v>
+        <v>67</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B213">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="B214">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -4409,71 +4638,71 @@
         <v>189</v>
       </c>
       <c r="B215">
-        <v>10100</v>
+        <v>26</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="B216">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B217">
-        <v>32</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B218">
-        <v>1675</v>
+        <v>27</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="B219">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="B220">
-        <v>23</v>
+        <v>10100</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B221">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B222">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>194</v>
+        <v>32</v>
       </c>
       <c r="B223">
-        <v>41101</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -4481,7 +4710,7 @@
         <v>195</v>
       </c>
       <c r="B224">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -4489,23 +4718,23 @@
         <v>196</v>
       </c>
       <c r="B225">
-        <v>442</v>
+        <v>23</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="B226">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="B227">
-        <v>2732</v>
+        <v>33</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -4513,7 +4742,7 @@
         <v>198</v>
       </c>
       <c r="B228">
-        <v>33</v>
+        <v>41101</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -4521,23 +4750,23 @@
         <v>199</v>
       </c>
       <c r="B229">
-        <v>1081</v>
+        <v>31</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="B230">
-        <v>34</v>
+        <v>442</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="B231">
-        <v>67</v>
+        <v>32</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -4545,7 +4774,7 @@
         <v>201</v>
       </c>
       <c r="B232">
-        <v>35</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -4553,7 +4782,7 @@
         <v>202</v>
       </c>
       <c r="B233">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -4561,15 +4790,15 @@
         <v>203</v>
       </c>
       <c r="B234">
-        <v>5022</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B235">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -4577,7 +4806,7 @@
         <v>204</v>
       </c>
       <c r="B236">
-        <v>516</v>
+        <v>67</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -4585,7 +4814,7 @@
         <v>205</v>
       </c>
       <c r="B237">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -4593,79 +4822,79 @@
         <v>206</v>
       </c>
       <c r="B238">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>57</v>
+        <v>207</v>
       </c>
       <c r="B239">
-        <v>38</v>
+        <v>5022</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B240">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B241">
-        <v>90</v>
+        <v>516</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>209</v>
+        <v>25</v>
       </c>
       <c r="B242">
-        <v>14776</v>
+        <v>37</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="B243">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B244">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c r="B246">
-        <v>31000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B247">
-        <v>42</v>
+        <v>14776</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -4673,263 +4902,263 @@
         <v>213</v>
       </c>
       <c r="B248">
-        <v>1900</v>
+        <v>40</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="B249">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="B250">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B251">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="B252">
-        <v>7</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B253">
-        <v>60528</v>
+        <v>42</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="B254">
-        <v>45</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="B255">
-        <v>87</v>
+        <v>43</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B256">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B257">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B258">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B259">
-        <v>3508</v>
+        <v>60528</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B260">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B261">
-        <v>5</v>
+        <v>87</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B262">
-        <v>4980</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B263">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B264">
-        <v>89</v>
+        <v>52</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B265">
-        <v>49</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B266">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B267">
-        <v>24100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B268">
-        <v>50</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B269">
-        <v>532</v>
+        <v>48</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B270">
-        <v>51</v>
+        <v>89</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B271">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B272">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B273">
-        <v>22</v>
+        <v>24100</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B274">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B275">
-        <v>300</v>
+        <v>532</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B276">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B277">
-        <v>8585</v>
+        <v>43</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B278">
-        <v>1010</v>
+        <v>52</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B279">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="B280">
-        <v>2743</v>
+        <v>53</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -4937,7 +5166,7 @@
         <v>243</v>
       </c>
       <c r="B281">
-        <v>56</v>
+        <v>300</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -4945,31 +5174,31 @@
         <v>244</v>
       </c>
       <c r="B282">
-        <v>369</v>
+        <v>54</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>245</v>
+        <v>84</v>
       </c>
       <c r="B283">
-        <v>50739</v>
+        <v>8585</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B284">
-        <v>57</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c r="B285">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -4977,7 +5206,7 @@
         <v>247</v>
       </c>
       <c r="B286">
-        <v>321</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -4985,15 +5214,15 @@
         <v>248</v>
       </c>
       <c r="B287">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="B288">
-        <v>14</v>
+        <v>369</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -5001,55 +5230,55 @@
         <v>249</v>
       </c>
       <c r="B289">
-        <v>5020</v>
+        <v>50739</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="B290">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B291">
-        <v>58</v>
+        <v>265</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B292">
-        <v>1756</v>
+        <v>58</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="B293">
-        <v>61</v>
+        <v>321</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B294">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="B295">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
@@ -5057,7 +5286,7 @@
         <v>254</v>
       </c>
       <c r="B296">
-        <v>891</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -5065,15 +5294,15 @@
         <v>255</v>
       </c>
       <c r="B297">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="B298">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
@@ -5081,7 +5310,7 @@
         <v>256</v>
       </c>
       <c r="B299">
-        <v>64</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
@@ -5089,31 +5318,31 @@
         <v>257</v>
       </c>
       <c r="B300">
-        <v>900</v>
+        <v>61</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>258</v>
+        <v>140</v>
       </c>
       <c r="B301">
-        <v>1010</v>
+        <v>12</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B302">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>136</v>
+        <v>259</v>
       </c>
       <c r="B303">
-        <v>2817</v>
+        <v>891</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
@@ -5121,7 +5350,7 @@
         <v>260</v>
       </c>
       <c r="B304">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
@@ -5129,39 +5358,39 @@
         <v>261</v>
       </c>
       <c r="B305">
-        <v>124</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>141</v>
+        <v>262</v>
       </c>
       <c r="B306">
-        <v>42100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B307">
-        <v>67</v>
+        <v>900</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B308">
-        <v>267</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>264</v>
+        <v>98</v>
       </c>
       <c r="B309">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
@@ -5169,7 +5398,7 @@
         <v>265</v>
       </c>
       <c r="B310">
-        <v>237</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
@@ -5177,7 +5406,7 @@
         <v>266</v>
       </c>
       <c r="B311">
-        <v>1203</v>
+        <v>66</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
@@ -5185,7 +5414,7 @@
         <v>267</v>
       </c>
       <c r="B312">
-        <v>69</v>
+        <v>124</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
@@ -5193,183 +5422,183 @@
         <v>268</v>
       </c>
       <c r="B313">
-        <v>1</v>
+        <v>42100</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>99</v>
+        <v>269</v>
       </c>
       <c r="B314">
-        <v>28001</v>
+        <v>67</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B315">
-        <v>70</v>
+        <v>267</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B316">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B317">
-        <v>4110</v>
+        <v>237</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B318">
-        <v>71</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B319">
-        <v>187</v>
+        <v>69</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B320">
-        <v>72</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B321">
-        <v>90</v>
+        <v>28001</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B322">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B323">
-        <v>34</v>
+        <v>78</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B324">
-        <v>1734</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B325">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="B326">
-        <v>75</v>
+        <v>187</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="B327">
-        <v>555</v>
+        <v>72</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B328">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B329">
-        <v>255</v>
+        <v>73</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>284</v>
+        <v>32</v>
       </c>
       <c r="B330">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>182</v>
+        <v>283</v>
       </c>
       <c r="B331">
-        <v>89</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>231</v>
+        <v>140</v>
       </c>
       <c r="B332">
-        <v>2</v>
+        <v>74</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B333">
-        <v>78</v>
+        <v>25</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B334">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>31</v>
+        <v>286</v>
       </c>
       <c r="B335">
-        <v>59801</v>
+        <v>555</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
@@ -5377,71 +5606,71 @@
         <v>287</v>
       </c>
       <c r="B336">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>141</v>
+        <v>288</v>
       </c>
       <c r="B337">
-        <v>48</v>
+        <v>255</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="B338">
-        <v>44087</v>
+        <v>77</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B339">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B340">
-        <v>123</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B341">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B342">
-        <v>414</v>
+        <v>55</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B343">
-        <v>82</v>
+        <v>59801</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B344">
-        <v>722</v>
+        <v>79</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
@@ -5449,7 +5678,7 @@
         <v>293</v>
       </c>
       <c r="B345">
-        <v>83</v>
+        <v>48</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
@@ -5457,7 +5686,7 @@
         <v>294</v>
       </c>
       <c r="B346">
-        <v>45</v>
+        <v>44087</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
@@ -5465,31 +5694,31 @@
         <v>295</v>
       </c>
       <c r="B347">
-        <v>8200</v>
+        <v>80</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="B348">
-        <v>84</v>
+        <v>123</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B349">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>297</v>
+        <v>15</v>
       </c>
       <c r="B350">
-        <v>59</v>
+        <v>414</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
@@ -5497,7 +5726,7 @@
         <v>298</v>
       </c>
       <c r="B351">
-        <v>51100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
@@ -5505,7 +5734,7 @@
         <v>299</v>
       </c>
       <c r="B352">
-        <v>86</v>
+        <v>722</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
@@ -5513,7 +5742,7 @@
         <v>300</v>
       </c>
       <c r="B353">
-        <v>900</v>
+        <v>83</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
@@ -5521,181 +5750,208 @@
         <v>301</v>
       </c>
       <c r="B354">
-        <v>87</v>
+        <v>45</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>14</v>
+        <v>302</v>
       </c>
       <c r="B355">
-        <v>38</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="B356">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="B357">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B358">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B359">
-        <v>305</v>
+        <v>59</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B360">
-        <v>90</v>
+        <v>51100</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="B361">
-        <v>45</v>
+        <v>86</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="B362">
-        <v>21240</v>
+        <v>900</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>307</v>
+        <v>308</v>
+      </c>
+      <c r="B363">
+        <v>87</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>308</v>
+        <v>309</v>
+      </c>
+      <c r="B364">
+        <v>38</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>309</v>
+        <v>310</v>
+      </c>
+      <c r="B365">
+        <v>88</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>310</v>
+        <v>311</v>
+      </c>
+      <c r="B366">
+        <v>12</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>311</v>
+        <v>312</v>
+      </c>
+      <c r="B367">
+        <v>89</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="B368">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="B369">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="B370">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="B371">
+        <v>21240</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>327</v>
+        <v>25</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.3">
@@ -5720,17 +5976,17 @@
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>24</v>
+        <v>332</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>333</v>
+        <v>32</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.3">
@@ -5745,22 +6001,22 @@
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>336</v>
+        <v>75</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>160</v>
+        <v>328</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>31</v>
+        <v>337</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.3">
@@ -5775,22 +6031,22 @@
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>341</v>
+        <v>75</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.3">
@@ -5805,32 +6061,32 @@
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>90</v>
+        <v>344</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>75</v>
+        <v>346</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>347</v>
+        <v>301</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.3">
@@ -5845,7 +6101,7 @@
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.3">
@@ -5860,12 +6116,12 @@
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>305</v>
+        <v>352</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>352</v>
+        <v>295</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.3">
@@ -5875,32 +6131,32 @@
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>101</v>
+        <v>354</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>299</v>
+        <v>357</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>357</v>
+        <v>266</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.3">
@@ -5925,167 +6181,167 @@
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>270</v>
+        <v>363</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>363</v>
+        <v>25</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>24</v>
+        <v>370</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>370</v>
+        <v>301</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>372</v>
+        <v>290</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>373</v>
+        <v>120</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>374</v>
+        <v>266</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>121</v>
+        <v>288</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>289</v>
+        <v>376</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>291</v>
+        <v>378</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>275</v>
+        <v>379</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>381</v>
+        <v>271</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>382</v>
+        <v>32</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>280</v>
+        <v>382</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.3">
@@ -6100,17 +6356,17 @@
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>385</v>
+        <v>32</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>275</v>
+        <v>385</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>31</v>
+        <v>276</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.3">
@@ -6130,107 +6386,107 @@
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>31</v>
+        <v>389</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>280</v>
+        <v>391</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>392</v>
+        <v>266</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>270</v>
+        <v>218</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>402</v>
+        <v>222</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>222</v>
+        <v>403</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.3">
@@ -6240,47 +6496,47 @@
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>226</v>
+        <v>407</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>412</v>
+        <v>89</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>413</v>
+        <v>301</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.3">
@@ -6300,57 +6556,57 @@
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>417</v>
+        <v>100</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>90</v>
+        <v>417</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>305</v>
+        <v>418</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>101</v>
+        <v>422</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>421</v>
+        <v>25</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>424</v>
+        <v>318</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.3">
@@ -6360,37 +6616,37 @@
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>426</v>
+        <v>317</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>24</v>
+        <v>426</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>427</v>
+        <v>49</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>322</v>
+        <v>51</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>321</v>
+        <v>429</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.3">
@@ -6400,97 +6656,97 @@
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>48</v>
+        <v>431</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>50</v>
+        <v>433</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>436</v>
+        <v>114</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>437</v>
+        <v>115</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>438</v>
+        <v>116</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>115</v>
+        <v>440</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>116</v>
+        <v>441</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>117</v>
+        <v>442</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>441</v>
+        <v>301</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>443</v>
+        <v>266</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.3">
@@ -6510,62 +6766,62 @@
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>305</v>
+        <v>447</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>270</v>
+        <v>449</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>448</v>
+        <v>25</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>24</v>
+        <v>455</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>455</v>
+        <v>75</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.3">
@@ -6575,132 +6831,132 @@
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>457</v>
+        <v>77</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>75</v>
+        <v>461</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>77</v>
+        <v>463</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>462</v>
+        <v>35</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>463</v>
+        <v>36</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>464</v>
+        <v>37</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>34</v>
+        <v>468</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>35</v>
+        <v>469</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>36</v>
+        <v>470</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>469</v>
+        <v>175</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>474</v>
+        <v>32</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>177</v>
+        <v>475</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.3">
@@ -6715,237 +6971,237 @@
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>478</v>
+        <v>234</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>477</v>
+        <v>235</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>31</v>
+        <v>236</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>239</v>
+        <v>476</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>240</v>
+        <v>482</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>483</v>
+        <v>282</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>484</v>
+        <v>32</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>485</v>
+        <v>283</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>486</v>
+        <v>140</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>182</v>
+        <v>483</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>286</v>
+        <v>486</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>31</v>
+        <v>487</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>287</v>
+        <v>136</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>141</v>
+        <v>488</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>488</v>
+        <v>138</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>489</v>
+        <v>139</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>490</v>
+        <v>140</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>137</v>
+        <v>491</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>139</v>
+        <v>493</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>141</v>
+        <v>494</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>497</v>
+        <v>135</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>498</v>
+        <v>238</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>24</v>
+        <v>498</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>499</v>
+        <v>114</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>500</v>
+        <v>115</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>501</v>
+        <v>116</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>136</v>
+        <v>500</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>242</v>
+        <v>501</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>115</v>
+        <v>390</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>116</v>
+        <v>503</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>117</v>
+        <v>461</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.3">
@@ -6955,22 +7211,22 @@
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>505</v>
+        <v>266</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>394</v>
+        <v>507</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.3">
@@ -6980,52 +7236,52 @@
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>270</v>
+        <v>511</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>511</v>
+        <v>222</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>516</v>
+        <v>135</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.3">
@@ -7035,137 +7291,137 @@
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>226</v>
+        <v>282</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>518</v>
+        <v>32</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>519</v>
+        <v>283</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>520</v>
+        <v>140</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>136</v>
+        <v>519</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>286</v>
+        <v>521</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>31</v>
+        <v>522</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>287</v>
+        <v>523</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>523</v>
+        <v>250</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>524</v>
+        <v>29</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>131</v>
+        <v>528</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>529</v>
+        <v>83</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>531</v>
+        <v>252</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>83</v>
+        <v>533</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>84</v>
+        <v>534</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.3">
@@ -7175,47 +7431,47 @@
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>256</v>
+        <v>536</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>543</v>
+        <v>266</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.3">
@@ -7250,47 +7506,47 @@
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>270</v>
+        <v>392</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>550</v>
+        <v>49</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>552</v>
+        <v>51</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>396</v>
+        <v>554</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>48</v>
+        <v>555</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.3">
@@ -7300,22 +7556,22 @@
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>50</v>
+        <v>557</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>559</v>
+        <v>155</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.3">
@@ -7330,72 +7586,72 @@
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>562</v>
+        <v>89</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>564</v>
+        <v>450</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>565</v>
+        <v>75</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>156</v>
+        <v>563</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>90</v>
+        <v>567</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>454</v>
+        <v>569</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
-        <v>75</v>
+        <v>570</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>571</v>
+        <v>266</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.3">
@@ -7435,12 +7691,12 @@
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>579</v>
+        <v>409</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>270</v>
+        <v>579</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.3">
@@ -7470,117 +7726,117 @@
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>585</v>
+        <v>319</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>586</v>
+        <v>372</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>587</v>
+        <v>266</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>323</v>
+        <v>588</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>376</v>
+        <v>589</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>270</v>
+        <v>590</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>587</v>
+        <v>266</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>396</v>
+        <v>25</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>270</v>
+        <v>598</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.3">
@@ -7600,537 +7856,487 @@
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
-        <v>602</v>
+        <v>31</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>604</v>
+        <v>35</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
-        <v>605</v>
+        <v>37</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>35</v>
+        <v>474</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>611</v>
+        <v>139</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
-        <v>612</v>
+        <v>140</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
-        <v>136</v>
+        <v>252</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
-        <v>31</v>
+        <v>611</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
-        <v>139</v>
+        <v>613</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
-        <v>141</v>
+        <v>614</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
-        <v>617</v>
+        <v>266</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>256</v>
+        <v>616</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
-        <v>622</v>
+        <v>557</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
-        <v>99</v>
+        <v>620</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>270</v>
+        <v>622</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
-        <v>626</v>
+        <v>89</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>627</v>
+        <v>559</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>563</v>
+        <v>626</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>629</v>
+        <v>75</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>631</v>
+        <v>68</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
-        <v>90</v>
+        <v>631</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>565</v>
+        <v>89</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>635</v>
+        <v>32</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>75</v>
+        <v>633</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
-        <v>637</v>
+        <v>75</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
-        <v>67</v>
+        <v>634</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
-        <v>90</v>
+        <v>639</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
-        <v>31</v>
+        <v>640</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
-        <v>642</v>
+        <v>25</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
-        <v>75</v>
+        <v>642</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
-        <v>24</v>
+        <v>502</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
-        <v>652</v>
+        <v>180</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
-        <v>653</v>
+        <v>227</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
-        <v>656</v>
+        <v>140</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
-        <v>659</v>
+        <v>538</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
-        <v>507</v>
+        <v>655</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
-        <v>182</v>
+        <v>657</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
-        <v>231</v>
+        <v>658</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
-        <v>661</v>
+        <v>271</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
-        <v>141</v>
+        <v>372</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
-        <v>544</v>
+        <v>266</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
-        <v>275</v>
+        <v>666</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A862" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A863" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A864" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A865" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A866" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A867" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A868" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A869" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A870" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A871" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>
